--- a/УОИФБ SD8476384_заполненый (4).xlsx
+++ b/УОИФБ SD8476384_заполненый (4).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="116">
   <si>
     <t>Код ТОФК</t>
   </si>
@@ -1156,14 +1156,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="93.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="39" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -3049,9 +3049,6 @@
       <c r="C91" s="9">
         <v>4597001100</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="F91" s="16" t="s">
         <v>115</v>
       </c>
